--- a/Team-Data/2012-13/12-21-2012-13.xlsx
+++ b/Team-Data/2012-13/12-21-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.625</v>
+        <v>0.652</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
-        <v>0.448</v>
+        <v>0.451</v>
       </c>
       <c r="L2" t="n">
         <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N2" t="n">
         <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="P2" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.698</v>
+        <v>0.697</v>
       </c>
       <c r="R2" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30.3</v>
+        <v>30.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V2" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W2" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.8</v>
+        <v>20.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
@@ -759,22 +826,22 @@
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -786,19 +853,19 @@
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
@@ -807,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -816,10 +883,10 @@
         <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H3" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>79.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.468</v>
+        <v>0.472</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.349</v>
+        <v>0.358</v>
       </c>
       <c r="O3" t="n">
         <v>17.5</v>
       </c>
       <c r="P3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="S3" t="n">
         <v>30.8</v>
       </c>
       <c r="T3" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="U3" t="n">
         <v>23.3</v>
@@ -905,40 +972,40 @@
         <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>20.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -983,22 +1050,22 @@
         <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
@@ -1123,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
       </c>
       <c r="AL4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM4" t="n">
         <v>8</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>7</v>
       </c>
       <c r="AN4" t="n">
         <v>19</v>
@@ -1144,10 +1211,10 @@
         <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR4" t="n">
         <v>8</v>
@@ -1156,7 +1223,7 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
         <v>20</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -1212,115 +1279,115 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.269</v>
+        <v>0.28</v>
       </c>
       <c r="H5" t="n">
         <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T5" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U5" t="n">
         <v>19.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1332,19 +1399,19 @@
         <v>13</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW5" t="n">
         <v>22</v>
@@ -1362,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.583</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J6" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.441</v>
       </c>
       <c r="L6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M6" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.341</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="R6" t="n">
         <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="U6" t="n">
         <v>22.5</v>
@@ -1454,28 +1521,28 @@
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.5</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
         <v>2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1484,13 +1551,13 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
         <v>26</v>
       </c>
-      <c r="AI6" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
@@ -1502,13 +1569,13 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -1517,34 +1584,34 @@
         <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU6" t="n">
         <v>7</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>23</v>
       </c>
       <c r="AW6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -1576,82 +1643,82 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.179</v>
+        <v>0.185</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J7" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="L7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R7" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="S7" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U7" t="n">
         <v>19.3</v>
       </c>
       <c r="V7" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W7" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
         <v>22.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>93.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1666,10 +1733,10 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1678,31 +1745,31 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>29</v>
@@ -1711,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.444</v>
+        <v>0.462</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="J8" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M8" t="n">
         <v>19.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O8" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
@@ -1824,40 +1891,40 @@
         <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="AC8" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
         <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>14</v>
@@ -1866,10 +1933,10 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1878,25 +1945,25 @@
         <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS8" t="n">
         <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG9" t="n">
         <v>16</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
@@ -2045,13 +2112,13 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2072,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -2122,115 +2189,115 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.276</v>
+        <v>0.25</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J10" t="n">
-        <v>80.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L10" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M10" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O10" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P10" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V10" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z10" t="n">
         <v>20.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG10" t="n">
         <v>27</v>
       </c>
-      <c r="AG10" t="n">
-        <v>26</v>
-      </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
@@ -2242,28 +2309,28 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW10" t="n">
         <v>30</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>16</v>
@@ -2275,7 +2342,7 @@
         <v>24</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -2304,97 +2371,97 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.667</v>
+        <v>0.654</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
         <v>83.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.367</v>
       </c>
       <c r="O11" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T11" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2406,37 +2473,37 @@
         <v>7</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
         <v>16</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2451,13 +2518,13 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2579,10 +2646,10 @@
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK12" t="n">
         <v>15</v>
@@ -2606,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS12" t="n">
         <v>6</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>26</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.556</v>
+        <v>0.538</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J13" t="n">
         <v>80.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
       <c r="L13" t="n">
         <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O13" t="n">
         <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.731</v>
+        <v>0.734</v>
       </c>
       <c r="R13" t="n">
         <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T13" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V13" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y13" t="n">
         <v>5.3</v>
@@ -2740,49 +2807,49 @@
         <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>20</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2797,13 +2864,13 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2812,16 +2879,16 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -2850,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.769</v>
+        <v>0.76</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.48</v>
       </c>
       <c r="L14" t="n">
         <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T14" t="n">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="U14" t="n">
         <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="X14" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
         <v>20.9</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21.1</v>
-      </c>
       <c r="AB14" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2946,10 +3013,10 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>17</v>
@@ -2958,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
@@ -2967,31 +3034,31 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR14" t="n">
         <v>20</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>19</v>
       </c>
       <c r="AS14" t="n">
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3000,10 +3067,10 @@
         <v>7</v>
       </c>
       <c r="BB14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>2.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
         <v>20</v>
@@ -3128,10 +3195,10 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3161,22 +3228,22 @@
         <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,67 +3299,67 @@
         <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M16" t="n">
         <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.362</v>
+        <v>0.367</v>
       </c>
       <c r="O16" t="n">
         <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.803</v>
+        <v>0.801</v>
       </c>
       <c r="R16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="S16" t="n">
         <v>29.9</v>
       </c>
       <c r="T16" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
         <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y16" t="n">
         <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3301,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
@@ -3310,10 +3377,10 @@
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,37 +3389,37 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT16" t="n">
         <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3361,13 +3428,13 @@
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>3</v>
@@ -3498,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
         <v>1</v>
@@ -3531,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>23</v>
@@ -3540,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="H18" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="K18" t="n">
         <v>0.43</v>
@@ -3611,55 +3678,55 @@
         <v>0.325</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.736</v>
+        <v>0.745</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>30.6</v>
+        <v>30.1</v>
       </c>
       <c r="T18" t="n">
-        <v>43.1</v>
+        <v>42.5</v>
       </c>
       <c r="U18" t="n">
         <v>21.7</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>4.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>10</v>
@@ -3668,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3677,10 +3744,10 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
         <v>25</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3692,25 +3759,25 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
@@ -3722,13 +3789,13 @@
         <v>4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -3838,25 +3905,25 @@
         <v>1.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
@@ -3886,10 +3953,10 @@
         <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
         <v>27</v>
@@ -3901,19 +3968,19 @@
         <v>9</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.192</v>
+        <v>0.2</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J20" t="n">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.377</v>
+        <v>0.386</v>
       </c>
       <c r="O20" t="n">
         <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.789</v>
+        <v>0.786</v>
       </c>
       <c r="R20" t="n">
         <v>10.8</v>
       </c>
       <c r="S20" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T20" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="U20" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V20" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W20" t="n">
         <v>6.1</v>
@@ -4005,22 +4072,22 @@
         <v>5.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="AC20" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4044,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
         <v>16</v>
@@ -4053,28 +4120,28 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>21</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4083,7 +4150,7 @@
         <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0.731</v>
+        <v>0.76</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4142,46 +4209,46 @@
         <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L21" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="M21" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
       <c r="O21" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
         <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
         <v>10.7</v>
       </c>
       <c r="W21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4190,37 +4257,37 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH21" t="n">
         <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>24</v>
@@ -4253,7 +4320,7 @@
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4268,16 +4335,16 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>5</v>
       </c>
       <c r="BC21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4408,13 +4475,13 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,7 +4499,7 @@
         <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
         <v>12</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4459,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -4488,52 +4555,52 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.462</v>
+        <v>0.48</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J23" t="n">
-        <v>82.3</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="O23" t="n">
+        <v>13</v>
+      </c>
+      <c r="P23" t="n">
         <v>16.4</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="O23" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="R23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
         <v>43.6</v>
@@ -4542,40 +4609,40 @@
         <v>22.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
         <v>6.2</v>
       </c>
       <c r="X23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG23" t="n">
         <v>19</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>20</v>
       </c>
       <c r="AH23" t="n">
         <v>27</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>27</v>
@@ -4596,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,34 +4678,34 @@
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.481</v>
+        <v>0.462</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L24" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
         <v>18.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O24" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="P24" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.73</v>
+        <v>0.735</v>
       </c>
       <c r="R24" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S24" t="n">
         <v>29.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="V24" t="n">
         <v>12.4</v>
@@ -4733,52 +4800,52 @@
         <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-2.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
         <v>19</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4787,16 +4854,16 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4805,25 +4872,25 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
         <v>23</v>
@@ -4951,10 +5018,10 @@
         <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>18</v>
@@ -4963,22 +5030,22 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
         <v>29</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>13</v>
@@ -4987,13 +5054,13 @@
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
@@ -5005,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>2</v>
@@ -5130,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
@@ -5142,19 +5209,19 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>28</v>
@@ -5163,28 +5230,28 @@
         <v>24</v>
       </c>
       <c r="AU26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.308</v>
+        <v>0.32</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="U27" t="n">
         <v>18.5</v>
@@ -5276,43 +5343,43 @@
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5321,52 +5388,52 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.714</v>
+        <v>0.704</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,19 +5483,19 @@
         <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O28" t="n">
         <v>16.5</v>
@@ -5437,22 +5504,22 @@
         <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>42.6</v>
       </c>
       <c r="U28" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="V28" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W28" t="n">
         <v>8.300000000000001</v>
@@ -5461,16 +5528,16 @@
         <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="AA28" t="n">
         <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
         <v>6.4</v>
@@ -5494,19 +5561,19 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -5515,31 +5582,31 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>0.321</v>
+        <v>0.296</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,7 +5665,7 @@
         <v>35.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.43</v>
@@ -5607,55 +5674,55 @@
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O29" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P29" t="n">
         <v>22.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S29" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
         <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>5.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4.3</v>
+        <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
         <v>2</v>
@@ -5664,49 +5731,49 @@
         <v>24</v>
       </c>
       <c r="AF29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG29" t="n">
         <v>25</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
       </c>
       <c r="AK29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN29" t="n">
         <v>26</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>25</v>
       </c>
       <c r="AO29" t="n">
         <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5715,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG30" t="n">
         <v>16</v>
       </c>
-      <c r="AG30" t="n">
-        <v>15</v>
-      </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
         <v>13</v>
@@ -5873,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
@@ -5885,10 +5952,10 @@
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU30" t="n">
         <v>6</v>
@@ -5897,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5909,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="H31" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I31" t="n">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="J31" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.403</v>
+        <v>0.407</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.32</v>
+        <v>0.324</v>
       </c>
       <c r="O31" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P31" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
         <v>0.752</v>
@@ -5989,25 +6056,25 @@
         <v>11.5</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
         <v>21.1</v>
@@ -6016,13 +6083,13 @@
         <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>88.8</v>
+        <v>89.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.5</v>
+        <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6034,58 +6101,58 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>24</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-21-2012-13</t>
+          <t>2012-12-21</t>
         </is>
       </c>
     </row>
